--- a/Version4/BugTracker_v4.xlsx
+++ b/Version4/BugTracker_v4.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TESTER\GURU_BANK\GURU99_BANK\Version4\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="Defects" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -480,7 +475,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12">
     <font>
       <sz val="10"/>
@@ -742,7 +737,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -794,7 +789,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -988,7 +983,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1003,23 +998,23 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="A1:J36"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="5"/>
-    <col min="3" max="3" width="9.1796875"/>
-    <col min="4" max="4" width="7.453125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" style="5"/>
+    <col min="1" max="1" width="8.42578125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="5"/>
+    <col min="3" max="3" width="9.140625"/>
+    <col min="4" max="4" width="7.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="5"/>
     <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="37.54296875" customWidth="1"/>
-    <col min="8" max="8" width="29.54296875" customWidth="1"/>
-    <col min="9" max="10" width="10.453125" customWidth="1"/>
+    <col min="7" max="7" width="37.5703125" customWidth="1"/>
+    <col min="8" max="8" width="29.5703125" customWidth="1"/>
+    <col min="9" max="10" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="62">
+    <row r="1" spans="1:22" ht="63">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -1063,7 +1058,7 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22" ht="46.5">
+    <row r="2" spans="1:22" ht="47.25">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -1095,7 +1090,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="77.5">
+    <row r="3" spans="1:22" ht="78.75">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -1127,7 +1122,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="62">
+    <row r="4" spans="1:22" ht="63">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -1159,7 +1154,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="62">
+    <row r="5" spans="1:22" ht="63">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -1191,7 +1186,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="77.5">
+    <row r="6" spans="1:22" ht="78.75">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -1223,7 +1218,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="46.5">
+    <row r="7" spans="1:22" ht="47.25">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -1255,7 +1250,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="62">
+    <row r="8" spans="1:22" ht="63">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -1287,7 +1282,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="46.5">
+    <row r="9" spans="1:22" ht="63">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -1319,7 +1314,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="62">
+    <row r="10" spans="1:22" ht="63">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -1351,7 +1346,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="46.5">
+    <row r="11" spans="1:22" ht="47.25">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -1383,7 +1378,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="62">
+    <row r="12" spans="1:22" ht="63">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -1415,7 +1410,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="62">
+    <row r="13" spans="1:22" ht="63">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -1447,7 +1442,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="46.5">
+    <row r="14" spans="1:22" ht="47.25">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -1479,7 +1474,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="46.5">
+    <row r="15" spans="1:22" ht="47.25">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -1511,7 +1506,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="62">
+    <row r="16" spans="1:22" ht="63">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -1543,7 +1538,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="46.5">
+    <row r="17" spans="1:10" ht="47.25">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -1575,7 +1570,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="77.5">
+    <row r="18" spans="1:10" ht="78.75">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -1607,7 +1602,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="46.5">
+    <row r="19" spans="1:10" ht="47.25">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -1639,7 +1634,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="46.5">
+    <row r="20" spans="1:10" ht="47.25">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -1671,7 +1666,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="46.5">
+    <row r="21" spans="1:10" ht="47.25">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -1703,7 +1698,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="62">
+    <row r="22" spans="1:10" ht="63">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -1733,7 +1728,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="62">
+    <row r="23" spans="1:10" ht="63">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -1765,7 +1760,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="62">
+    <row r="24" spans="1:10" ht="63">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -1797,7 +1792,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="46.5">
+    <row r="25" spans="1:10" ht="47.25">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -1829,7 +1824,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="46.5">
+    <row r="26" spans="1:10" ht="47.25">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -1861,7 +1856,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="77.5">
+    <row r="27" spans="1:10" ht="78.75">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -1893,7 +1888,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="46.5">
+    <row r="28" spans="1:10" ht="47.25">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -1925,7 +1920,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="46.5">
+    <row r="29" spans="1:10" ht="47.25">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -1957,7 +1952,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="62">
+    <row r="30" spans="1:10" ht="63">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -1989,7 +1984,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="77.5">
+    <row r="31" spans="1:10" ht="94.5">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -2021,7 +2016,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="93">
+    <row r="32" spans="1:10" ht="94.5">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -2053,7 +2048,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="93">
+    <row r="33" spans="1:10" ht="94.5">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -2085,7 +2080,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="46.5">
+    <row r="34" spans="1:10" ht="47.25">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -2117,7 +2112,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="62">
+    <row r="35" spans="1:10" ht="63">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -2149,7 +2144,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="62">
+    <row r="36" spans="1:10" ht="63">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -2181,7 +2176,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="12.5">
+    <row r="37" spans="1:10" ht="12.75">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="6"/>
@@ -2193,7 +2188,7 @@
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="1:10" ht="12.5">
+    <row r="38" spans="1:10" ht="12.75">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="6"/>
@@ -2205,7 +2200,7 @@
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="1:10" ht="12.5">
+    <row r="39" spans="1:10" ht="12.75">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="6"/>
@@ -2217,7 +2212,7 @@
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="1:10" ht="12.5">
+    <row r="40" spans="1:10" ht="12.75">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="6"/>
@@ -2229,7 +2224,7 @@
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="1:10" ht="12.5">
+    <row r="41" spans="1:10" ht="12.75">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="6"/>
@@ -2241,7 +2236,7 @@
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="1:10" ht="12.5">
+    <row r="42" spans="1:10" ht="12.75">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="6"/>
@@ -2253,7 +2248,7 @@
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="1:10" ht="12.5">
+    <row r="43" spans="1:10" ht="12.75">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="6"/>
@@ -2265,7 +2260,7 @@
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="1:10" ht="12.5">
+    <row r="44" spans="1:10" ht="12.75">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="6"/>
@@ -2277,7 +2272,7 @@
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" spans="1:10" ht="12.5">
+    <row r="45" spans="1:10" ht="12.75">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="6"/>
@@ -2289,7 +2284,7 @@
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" spans="1:10" ht="12.5">
+    <row r="46" spans="1:10" ht="12.75">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="6"/>
@@ -2301,7 +2296,7 @@
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" spans="1:10" ht="12.5">
+    <row r="47" spans="1:10" ht="12.75">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="6"/>
@@ -2313,7 +2308,7 @@
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
     </row>
-    <row r="48" spans="1:10" ht="12.5">
+    <row r="48" spans="1:10" ht="12.75">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="6"/>
@@ -2325,7 +2320,7 @@
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
     </row>
-    <row r="49" spans="1:10" ht="12.5">
+    <row r="49" spans="1:10" ht="12.75">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="6"/>
@@ -2337,7 +2332,7 @@
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
     </row>
-    <row r="50" spans="1:10" ht="12.5">
+    <row r="50" spans="1:10" ht="12.75">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="6"/>
@@ -2349,7 +2344,7 @@
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="1:10" ht="12.5">
+    <row r="51" spans="1:10" ht="12.75">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="6"/>
@@ -2361,7 +2356,7 @@
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
     </row>
-    <row r="52" spans="1:10" ht="12.5">
+    <row r="52" spans="1:10" ht="12.75">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="6"/>
@@ -2373,7 +2368,7 @@
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
     </row>
-    <row r="53" spans="1:10" ht="12.5">
+    <row r="53" spans="1:10" ht="12.75">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="6"/>
@@ -2385,7 +2380,7 @@
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
     </row>
-    <row r="54" spans="1:10" ht="12.5">
+    <row r="54" spans="1:10" ht="12.75">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="6"/>
@@ -2397,7 +2392,7 @@
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" spans="1:10" ht="12.5">
+    <row r="55" spans="1:10" ht="12.75">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="6"/>
@@ -2409,7 +2404,7 @@
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" spans="1:10" ht="12.5">
+    <row r="56" spans="1:10" ht="12.75">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="6"/>
@@ -2421,7 +2416,7 @@
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" spans="1:10" ht="12.5">
+    <row r="57" spans="1:10" ht="12.75">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="6"/>
@@ -2433,7 +2428,7 @@
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="1:10" ht="12.5">
+    <row r="58" spans="1:10" ht="12.75">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="6"/>
@@ -2445,7 +2440,7 @@
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
     </row>
-    <row r="59" spans="1:10" ht="12.5">
+    <row r="59" spans="1:10" ht="12.75">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="6"/>
@@ -2457,7 +2452,7 @@
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
     </row>
-    <row r="60" spans="1:10" ht="12.5">
+    <row r="60" spans="1:10" ht="12.75">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="6"/>
@@ -2469,7 +2464,7 @@
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
     </row>
-    <row r="61" spans="1:10" ht="12.5">
+    <row r="61" spans="1:10" ht="12.75">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="6"/>
@@ -2481,7 +2476,7 @@
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
     </row>
-    <row r="62" spans="1:10" ht="12.5">
+    <row r="62" spans="1:10" ht="12.75">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="6"/>
@@ -2493,7 +2488,7 @@
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
     </row>
-    <row r="63" spans="1:10" ht="12.5">
+    <row r="63" spans="1:10" ht="12.75">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="6"/>
@@ -2517,7 +2512,7 @@
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
     </row>
-    <row r="65" spans="1:10" ht="12.5">
+    <row r="65" spans="1:10" ht="12.75">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="6"/>
@@ -2529,7 +2524,7 @@
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
     </row>
-    <row r="66" spans="1:10" ht="12.5">
+    <row r="66" spans="1:10" ht="12.75">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="6"/>
@@ -2541,7 +2536,7 @@
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
     </row>
-    <row r="67" spans="1:10" ht="12.5">
+    <row r="67" spans="1:10" ht="12.75">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="6"/>
@@ -2565,7 +2560,7 @@
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
     </row>
-    <row r="69" spans="1:10" ht="12.5">
+    <row r="69" spans="1:10" ht="12.75">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="6"/>
@@ -2577,7 +2572,7 @@
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
     </row>
-    <row r="70" spans="1:10" ht="12.5">
+    <row r="70" spans="1:10" ht="12.75">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="6"/>
@@ -2589,7 +2584,7 @@
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
     </row>
-    <row r="71" spans="1:10" ht="12.5">
+    <row r="71" spans="1:10" ht="12.75">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="6"/>
@@ -2601,7 +2596,7 @@
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
     </row>
-    <row r="72" spans="1:10" ht="12.5">
+    <row r="72" spans="1:10" ht="12.75">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="6"/>
@@ -2613,7 +2608,7 @@
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
     </row>
-    <row r="73" spans="1:10" ht="12.5">
+    <row r="73" spans="1:10" ht="12.75">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="6"/>
@@ -2625,7 +2620,7 @@
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
     </row>
-    <row r="74" spans="1:10" ht="12.5">
+    <row r="74" spans="1:10" ht="12.75">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="6"/>
@@ -2637,7 +2632,7 @@
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
     </row>
-    <row r="75" spans="1:10" ht="12.5">
+    <row r="75" spans="1:10" ht="12.75">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="6"/>
@@ -2649,7 +2644,7 @@
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
     </row>
-    <row r="76" spans="1:10" ht="12.5">
+    <row r="76" spans="1:10" ht="12.75">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="6"/>
@@ -2661,7 +2656,7 @@
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
     </row>
-    <row r="77" spans="1:10" ht="12.5">
+    <row r="77" spans="1:10" ht="12.75">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="6"/>
@@ -2673,7 +2668,7 @@
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
     </row>
-    <row r="78" spans="1:10" ht="12.5">
+    <row r="78" spans="1:10" ht="12.75">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="6"/>
@@ -2685,7 +2680,7 @@
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
     </row>
-    <row r="79" spans="1:10" ht="12.5">
+    <row r="79" spans="1:10" ht="12.75">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="6"/>
@@ -2697,7 +2692,7 @@
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
     </row>
-    <row r="80" spans="1:10" ht="12.5">
+    <row r="80" spans="1:10" ht="12.75">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="6"/>
@@ -2709,7 +2704,7 @@
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
     </row>
-    <row r="81" spans="1:10" ht="12.5">
+    <row r="81" spans="1:10" ht="12.75">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="6"/>
@@ -2721,7 +2716,7 @@
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
     </row>
-    <row r="82" spans="1:10" ht="12.5">
+    <row r="82" spans="1:10" ht="12.75">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="6"/>
@@ -2733,7 +2728,7 @@
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
     </row>
-    <row r="83" spans="1:10" ht="12.5">
+    <row r="83" spans="1:10" ht="12.75">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="6"/>
@@ -2745,7 +2740,7 @@
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
     </row>
-    <row r="84" spans="1:10" ht="12.5">
+    <row r="84" spans="1:10" ht="12.75">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="6"/>
@@ -2757,7 +2752,7 @@
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
     </row>
-    <row r="85" spans="1:10" ht="12.5">
+    <row r="85" spans="1:10" ht="12.75">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="6"/>
@@ -2769,7 +2764,7 @@
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
     </row>
-    <row r="86" spans="1:10" ht="12.5">
+    <row r="86" spans="1:10" ht="12.75">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="6"/>
@@ -2781,7 +2776,7 @@
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
     </row>
-    <row r="87" spans="1:10" ht="12.5">
+    <row r="87" spans="1:10" ht="12.75">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="6"/>
@@ -2793,7 +2788,7 @@
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
     </row>
-    <row r="88" spans="1:10" ht="12.5">
+    <row r="88" spans="1:10" ht="12.75">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="6"/>
@@ -2817,7 +2812,7 @@
       <c r="I89" s="7"/>
       <c r="J89" s="7"/>
     </row>
-    <row r="90" spans="1:10" ht="12.5">
+    <row r="90" spans="1:10" ht="12.75">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="6"/>
@@ -2829,7 +2824,7 @@
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
     </row>
-    <row r="91" spans="1:10" ht="12.5">
+    <row r="91" spans="1:10" ht="12.75">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="6"/>
@@ -2841,7 +2836,7 @@
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
     </row>
-    <row r="92" spans="1:10" ht="12.5">
+    <row r="92" spans="1:10" ht="12.75">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="6"/>
@@ -2853,7 +2848,7 @@
       <c r="I92" s="7"/>
       <c r="J92" s="7"/>
     </row>
-    <row r="93" spans="1:10" ht="12.5">
+    <row r="93" spans="1:10" ht="12.75">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="6"/>
@@ -2865,7 +2860,7 @@
       <c r="I93" s="7"/>
       <c r="J93" s="7"/>
     </row>
-    <row r="94" spans="1:10" ht="12.5">
+    <row r="94" spans="1:10" ht="12.75">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="6"/>
@@ -2877,7 +2872,7 @@
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
     </row>
-    <row r="95" spans="1:10" ht="12.5">
+    <row r="95" spans="1:10" ht="12.75">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="6"/>
@@ -2889,7 +2884,7 @@
       <c r="I95" s="7"/>
       <c r="J95" s="7"/>
     </row>
-    <row r="96" spans="1:10" ht="12.5">
+    <row r="96" spans="1:10" ht="12.75">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="6"/>
@@ -2901,7 +2896,7 @@
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
     </row>
-    <row r="97" spans="1:10" ht="12.5">
+    <row r="97" spans="1:10" ht="12.75">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="6"/>
@@ -2913,7 +2908,7 @@
       <c r="I97" s="7"/>
       <c r="J97" s="7"/>
     </row>
-    <row r="98" spans="1:10" ht="12.5">
+    <row r="98" spans="1:10" ht="12.75">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="6"/>
@@ -2925,7 +2920,7 @@
       <c r="I98" s="7"/>
       <c r="J98" s="7"/>
     </row>
-    <row r="99" spans="1:10" ht="12.5">
+    <row r="99" spans="1:10" ht="12.75">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="6"/>
@@ -2937,7 +2932,7 @@
       <c r="I99" s="7"/>
       <c r="J99" s="7"/>
     </row>
-    <row r="100" spans="1:10" ht="12.5">
+    <row r="100" spans="1:10" ht="12.75">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="6"/>
@@ -2949,7 +2944,7 @@
       <c r="I100" s="7"/>
       <c r="J100" s="7"/>
     </row>
-    <row r="101" spans="1:10" ht="12.5">
+    <row r="101" spans="1:10" ht="12.75">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="6"/>
@@ -2961,7 +2956,7 @@
       <c r="I101" s="7"/>
       <c r="J101" s="7"/>
     </row>
-    <row r="102" spans="1:10" ht="12.5">
+    <row r="102" spans="1:10" ht="12.75">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="3"/>
@@ -2973,7 +2968,7 @@
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
     </row>
-    <row r="103" spans="1:10" ht="12.5">
+    <row r="103" spans="1:10" ht="12.75">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="3"/>
@@ -2985,7 +2980,7 @@
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
     </row>
-    <row r="104" spans="1:10" ht="12.5">
+    <row r="104" spans="1:10" ht="12.75">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="3"/>
@@ -2997,7 +2992,7 @@
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
     </row>
-    <row r="105" spans="1:10" ht="12.5">
+    <row r="105" spans="1:10" ht="12.75">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="3"/>
@@ -3009,7 +3004,7 @@
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
     </row>
-    <row r="106" spans="1:10" ht="12.5">
+    <row r="106" spans="1:10" ht="12.75">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="3"/>
@@ -3021,7 +3016,7 @@
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
     </row>
-    <row r="107" spans="1:10" ht="12.5">
+    <row r="107" spans="1:10" ht="12.75">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="3"/>
@@ -3033,7 +3028,7 @@
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
     </row>
-    <row r="108" spans="1:10" ht="12.5">
+    <row r="108" spans="1:10" ht="12.75">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="3"/>
@@ -3045,7 +3040,7 @@
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
     </row>
-    <row r="109" spans="1:10" ht="12.5">
+    <row r="109" spans="1:10" ht="12.75">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="3"/>
@@ -3057,7 +3052,7 @@
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
     </row>
-    <row r="110" spans="1:10" ht="12.5">
+    <row r="110" spans="1:10" ht="12.75">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="3"/>
@@ -3069,7 +3064,7 @@
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
     </row>
-    <row r="111" spans="1:10" ht="12.5">
+    <row r="111" spans="1:10" ht="12.75">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="3"/>
@@ -3081,7 +3076,7 @@
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
     </row>
-    <row r="112" spans="1:10" ht="12.5">
+    <row r="112" spans="1:10" ht="12.75">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="3"/>
@@ -3093,7 +3088,7 @@
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
     </row>
-    <row r="113" spans="1:10" ht="12.5">
+    <row r="113" spans="1:10" ht="12.75">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="3"/>
@@ -3105,7 +3100,7 @@
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
     </row>
-    <row r="114" spans="1:10" ht="12.5">
+    <row r="114" spans="1:10" ht="12.75">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="3"/>
